--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="800" windowWidth="25560" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="800" windowWidth="15420" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>

--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WRShoemaker/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="800" windowWidth="15420" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170829_134555/Task2_48hr_48well_discon_170829_134555_wellNames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="17320" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
